--- a/content/training.xlsx
+++ b/content/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarut\Documents\Github\cept\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792660E5-6D98-4042-AFD9-FB0E6C07769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871B1CAB-8ED2-45F6-930F-B75B7019C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -37,9 +37,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>images</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
   </si>
   <si>
     <t>upcoming</t>
-  </si>
-  <si>
-    <t>assets/images/courses/course-101.jpg</t>
   </si>
   <si>
     <t>["assets/images/courses/gis-2026.png","assets/images/courses/course-102.jpg","assets/images/courses/course-101.jpg"]</t>
@@ -140,6 +134,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -186,13 +181,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,18 +498,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="47.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="63.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,138 +532,132 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2">
-        <v>5500</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2">
-        <v>7500</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{E021A8BA-B78A-49EF-BDF2-3747FFF24EF8}"/>
-    <hyperlink ref="I5" r:id="rId2" xr:uid="{49D40D10-313E-4548-9C41-9E8B8167FD0D}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{E021A8BA-B78A-49EF-BDF2-3747FFF24EF8}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{49D40D10-313E-4548-9C41-9E8B8167FD0D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
